--- a/Cleaned_Data_Iyanuoluwa.xlsx
+++ b/Cleaned_Data_Iyanuoluwa.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,253 +8,94 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A41FAECF-3843-4815-B3D6-E92D72ABE1AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5AA5657-5655-4CBB-9B61-555155A01359}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
-    <sheet name="Cleaned_Data_Iyanuoluwa.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="cleaning data used" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="95" uniqueCount="74">
-  <si>
-    <t>RAW DATA</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SALARY </t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>JOB ROLE</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="19">
   <si>
     <t>JUAREZ, JOSE ;41297;39000;ADMIN;INTERN</t>
   </si>
   <si>
-    <t>Juarez Jose</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
     <t>ABRAHAM, JOHNNY ;03/30/2013;27000;ENGINEERING;TRAINEE</t>
   </si>
   <si>
-    <t>Abraham Johnny</t>
-  </si>
-  <si>
-    <t>03/30/2013</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>Trainee</t>
-  </si>
-  <si>
     <t>BAKER, SARAH;04/30/2015;36000;SALES;SALES EXECUTIVE</t>
   </si>
   <si>
-    <t>Baker Sarah</t>
-  </si>
-  <si>
-    <t>04/30/2015</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Sales Executive</t>
-  </si>
-  <si>
     <t>BALOTELLI, BILLY;11/15/2007;23900;ENGINEERING;INTERN</t>
   </si>
   <si>
-    <t>Balotelli Billy</t>
-  </si>
-  <si>
-    <t>11/15/2007</t>
-  </si>
-  <si>
     <t>BISHOP, TIANA ;37959;46500;ENGINEERING;MANAGER</t>
   </si>
   <si>
-    <t>Bishop Tiana</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>BOATENG, TERRYY;07/27/2009;50000;ACCOUNTS;COST ACCOUNTANT</t>
   </si>
   <si>
-    <t>Boateng Terryy</t>
-  </si>
-  <si>
-    <t>07/27/2009</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Cost Accountant</t>
-  </si>
-  <si>
     <t>BOER, FRED ;12/23/2010;46000;MKTG;DESIGNER</t>
   </si>
   <si>
-    <t>Boer Fred</t>
-  </si>
-  <si>
-    <t>12/23/2010</t>
-  </si>
-  <si>
-    <t>Mktg</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
     <t>BARKER, BETTY;07/25/2007;43500;SALES;SALES EXECUTIVE</t>
   </si>
   <si>
-    <t>Barker Betty</t>
-  </si>
-  <si>
-    <t>07/25/2007</t>
-  </si>
-  <si>
     <t>BURSTEYN , TOM ;36834;21000;SALES;SALES TRAINEE</t>
   </si>
   <si>
-    <t>Bursteyn  Tom</t>
-  </si>
-  <si>
-    <t>Sales Trainee</t>
-  </si>
-  <si>
     <t>BURSTEYN, TAMMY ;38238;38000;SALES;SALES EXECUTIVE</t>
   </si>
   <si>
-    <t>Bursteyn Tammy</t>
-  </si>
-  <si>
     <t>BUSSER, BOBBY;37417;29950;ACCOUNTS;SENIOR ADMINISTRATOR</t>
   </si>
   <si>
-    <t>Busser Bobby</t>
-  </si>
-  <si>
-    <t>Senior Administrator</t>
-  </si>
-  <si>
     <t>CASCIEWICZ, KATHY; 12/15/2011;41000;SALES;SENIOR TECHNICIAN</t>
   </si>
   <si>
-    <t>Casciewicz Kathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12/15/2011</t>
-  </si>
-  <si>
-    <t>Senior Technician</t>
-  </si>
-  <si>
     <t>COLE, ASHLEY ;40483;54000;SALES;COST ACCOUNTANT</t>
   </si>
   <si>
-    <t>Cole Ashley</t>
-  </si>
-  <si>
     <t>COOKSON, CHARLES; 04/03/2012;63200;R &amp; D;VP</t>
   </si>
   <si>
-    <t>Cookson Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04/03/2012</t>
-  </si>
-  <si>
-    <t>R &amp; D</t>
-  </si>
-  <si>
-    <t>Vp</t>
-  </si>
-  <si>
     <t>CROSSLEY, ERIN ;04/23/2009;46000;ADMIN;TEAM LEADER</t>
   </si>
   <si>
-    <t>Crossley Erin</t>
-  </si>
-  <si>
-    <t>04/23/2009</t>
-  </si>
-  <si>
-    <t>Team Leader</t>
-  </si>
-  <si>
     <t>DOE, JANE ;07/25/2015;21500;R &amp; D;TRAINEE</t>
   </si>
   <si>
-    <t>Doe Jane</t>
-  </si>
-  <si>
-    <t>07/25/2015</t>
-  </si>
-  <si>
     <t>DOE, JOHN  ; 06/05/2014;45600;ENGINEERING;INTERN</t>
   </si>
   <si>
-    <t>Doe John</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06/05/2014</t>
-  </si>
-  <si>
     <t>DARNSTEIN, DANNY; 12/14/2011;52000;ENGINEERING;COST ACCOUNTANT</t>
   </si>
   <si>
-    <t>Darnstein Danny</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12/14/2011</t>
-  </si>
-  <si>
     <t>FALLENGRANO, BILL ; 06/29/2001;56750;ENGINEERING;SENIOR ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t>Fallengrano Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06/29/2001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;₦&quot;* #,##0.00_-;\-&quot;₦&quot;* #,##0.00_-;_-&quot;₦&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;₦&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -735,10 +576,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1093,424 +934,500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="B1" t="str">
+        <f>PROPER(SUBSTITUTE(LEFT(A1, FIND(";", A1) - 1), ",", ""))</f>
+        <v xml:space="preserve">Juarez Jose </v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>TEXT(MID(A1, FIND(";", A1) + 1, FIND(";", A1, FIND(";", A1) + 1) - FIND(";", A1) - 1), "mm/dd/yyyy")</f>
+        <v>01/23/2013</v>
+      </c>
+      <c r="D1" s="2">
+        <f>VALUE(TRIM(MID(A1, FIND(";", A1, FIND(";", A1) + 1) + 1, FIND(";", A1, FIND(";", A1, FIND(";", A1) + 1) + 1) - FIND(";", A1, FIND(";", A1) + 1) - 1)))</f>
+        <v>39000</v>
+      </c>
+      <c r="E1" t="str">
+        <f>PROPER(TRIM(MID(A1, FIND(";", A1, FIND(";", A1, FIND(";", A1) + 1) + 1) + 1, FIND(";", A1, FIND(";", A1, FIND(";", A1, FIND(";", A1) + 1) + 1) + 1) - FIND(";", A1, FIND(";", A1, FIND(";", A1) + 1) + 1) - 1)))</f>
+        <v>Admin</v>
+      </c>
+      <c r="F1" t="str">
+        <f>PROPER(TRIM(MID(A1, FIND(";", A1, FIND(";", A1, FIND(";", A1, FIND(";", A1) + 1) + 1) + 1) + 1, LEN(A1))))</f>
+        <v>Intern</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="d">
-        <v>2013-01-23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>39000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B19" si="0">PROPER(SUBSTITUTE(LEFT(A2, FIND(";", A2) - 1), ",", ""))</f>
+        <v xml:space="preserve">Abraham Johnny </v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C19" si="1">TEXT(MID(A2, FIND(";", A2) + 1, FIND(";", A2, FIND(";", A2) + 1) - FIND(";", A2) - 1), "mm/dd/yyyy")</f>
+        <v>03/30/2013</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D19" si="2">VALUE(TRIM(MID(A2, FIND(";", A2, FIND(";", A2) + 1) + 1, FIND(";", A2, FIND(";", A2, FIND(";", A2) + 1) + 1) - FIND(";", A2, FIND(";", A2) + 1) - 1)))</f>
+        <v>27000</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E19" si="3">PROPER(TRIM(MID(A2, FIND(";", A2, FIND(";", A2, FIND(";", A2) + 1) + 1) + 1, FIND(";", A2, FIND(";", A2, FIND(";", A2, FIND(";", A2) + 1) + 1) + 1) - FIND(";", A2, FIND(";", A2, FIND(";", A2) + 1) + 1) - 1)))</f>
+        <v>Engineering</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F19" si="4">PROPER(TRIM(MID(A2, FIND(";", A2, FIND(";", A2, FIND(";", A2, FIND(";", A2) + 1) + 1) + 1) + 1, LEN(A2))))</f>
+        <v>Trainee</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Baker Sarah</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>04/30/2015</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="2"/>
+        <v>36000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Executive</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Balotelli Billy</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11/15/2007</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>23900</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineering</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="4"/>
+        <v>Intern</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23900</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Bishop Tiana </v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>12/04/2003</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>46500</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineering</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="4"/>
+        <v>Manager</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="d">
-        <v>2003-12-04</v>
-      </c>
-      <c r="D6" s="1">
-        <v>46500</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Boateng Terryy</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>07/27/2009</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v>Accounts</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v>Cost Accountant</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Boer Fred </v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>12/23/2010</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>46000</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>Mktg</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v>Designer</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1">
-        <v>46000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Barker Betty</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>07/25/2007</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>43500</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Executive</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43500</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Bursteyn  Tom </v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11/04/2000</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>21000</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Trainee</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2" t="d">
-        <v>2000-11-04</v>
-      </c>
-      <c r="D10" s="1">
-        <v>21000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Bursteyn Tammy </v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>09/08/2004</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>38000</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v>Sales Executive</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="d">
-        <v>2004-09-08</v>
-      </c>
-      <c r="D11" s="1">
-        <v>38000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Busser Bobby</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>06/10/2002</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>29950</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v>Accounts</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v>Senior Administrator</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="d">
-        <v>2002-06-10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>29950</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Casciewicz Kathy</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 12/15/2011</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>41000</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v>Senior Technician</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1">
-        <v>41000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Cole Ashley </v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>11/01/2010</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>54000</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>Sales</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v>Cost Accountant</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2" t="d">
-        <v>2010-11-01</v>
-      </c>
-      <c r="D14" s="1">
-        <v>54000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cookson Charles</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 04/03/2012</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>63200</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>R &amp; D</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v>Vp</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1">
-        <v>63200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Crossley Erin </v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>04/23/2009</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>46000</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>Admin</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="4"/>
+        <v>Team Leader</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1">
-        <v>46000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Doe Jane </v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>07/25/2015</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>21500</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>R &amp; D</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="4"/>
+        <v>Trainee</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="1">
-        <v>21500</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Doe John  </v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 06/05/2014</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>45600</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineering</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="4"/>
+        <v>Intern</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1">
-        <v>45600</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Darnstein Danny</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 12/14/2011</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>52000</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineering</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="4"/>
+        <v>Cost Accountant</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1">
-        <v>52000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Fallengrano Bill </v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> 06/29/2001</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
         <v>56750</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>Engineering</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="4"/>
+        <v>Senior Administrator</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>